--- a/NdO_potential_curve.xlsx
+++ b/NdO_potential_curve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\OneDrive-南京大学\cyf(归档)\01_工作\01_文章\07_PCCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\OneDrive-南京大学\cyf(归档)\01_工作\01_文章\07_PCCP\review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A0270D-2FE6-46F1-B6D2-BD45820FB447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A8B48-EEB2-4BAA-9C4C-55C79DD86E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="41544" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>DMRGSCF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,58 @@
   </si>
   <si>
     <t>Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-uLDSRG(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forte+Block2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(T:LSDA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(FT:LSDA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(T:BLYP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(FT:BLYP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(T:revPBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(FT:revPBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(T:OPBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(FT:OPBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(T:PBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRG-PDFT(FT:PBE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openmolcas+QCMaquis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +219,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,26 +506,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" customWidth="1"/>
-    <col min="2" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="5" customWidth="1"/>
+    <col min="2" max="4" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -504,8 +565,41 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -542,8 +636,41 @@
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.2</v>
       </c>
@@ -580,8 +707,41 @@
       <c r="L3" s="2">
         <v>-9690.9007522969405</v>
       </c>
+      <c r="M3" s="5">
+        <v>-9690.9292190300002</v>
+      </c>
+      <c r="N3" s="5">
+        <v>-9687.5142948699995</v>
+      </c>
+      <c r="O3" s="5">
+        <v>-9688.2835010100007</v>
+      </c>
+      <c r="P3" s="5">
+        <v>-9694.7165971100003</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>-9695.4853461599996</v>
+      </c>
+      <c r="R3" s="5">
+        <v>-9694.2602672800003</v>
+      </c>
+      <c r="S3" s="5">
+        <v>-9695.0345460099998</v>
+      </c>
+      <c r="T3" s="5">
+        <v>-9697.6283655000007</v>
+      </c>
+      <c r="U3" s="5">
+        <v>-9698.4625117300002</v>
+      </c>
+      <c r="V3" s="5">
+        <v>-9693.8975794800008</v>
+      </c>
+      <c r="W3" s="5">
+        <v>-9694.6703262999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.4</v>
       </c>
@@ -618,8 +778,41 @@
       <c r="L4" s="2">
         <v>-9691.3959823304904</v>
       </c>
+      <c r="M4" s="5">
+        <v>-9691.4252618899991</v>
+      </c>
+      <c r="N4" s="5">
+        <v>-9687.9944045299999</v>
+      </c>
+      <c r="O4" s="5">
+        <v>-9688.7612917400002</v>
+      </c>
+      <c r="P4" s="5">
+        <v>-9695.2095627199997</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>-9695.9748956700005</v>
+      </c>
+      <c r="R4" s="5">
+        <v>-9694.7496224700008</v>
+      </c>
+      <c r="S4" s="5">
+        <v>-9695.5196847999996</v>
+      </c>
+      <c r="T4" s="5">
+        <v>-9698.1036711699999</v>
+      </c>
+      <c r="U4" s="5">
+        <v>-9698.9334790699995</v>
+      </c>
+      <c r="V4" s="5">
+        <v>-9694.3848199099994</v>
+      </c>
+      <c r="W4" s="5">
+        <v>-9695.1535811899994</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.6</v>
       </c>
@@ -656,8 +849,42 @@
       <c r="L5" s="2">
         <v>-9691.5583936446892</v>
       </c>
+      <c r="M5" s="5">
+        <f>-9691.58939899</f>
+        <v>-9691.5893989899996</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-9688.14518623</v>
+      </c>
+      <c r="O5" s="5">
+        <v>-9688.9101698300001</v>
+      </c>
+      <c r="P5" s="5">
+        <v>-9695.3791615999999</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>-9696.14256054</v>
+      </c>
+      <c r="R5" s="5">
+        <v>-9694.9121292199998</v>
+      </c>
+      <c r="S5" s="5">
+        <v>-9695.6804955299995</v>
+      </c>
+      <c r="T5" s="5">
+        <v>-9698.2483369300007</v>
+      </c>
+      <c r="U5" s="5">
+        <v>-9699.0766719599997</v>
+      </c>
+      <c r="V5" s="5">
+        <v>-9694.5456606999996</v>
+      </c>
+      <c r="W5" s="5">
+        <v>-9695.3125522900009</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.7</v>
       </c>
@@ -694,8 +921,42 @@
       <c r="L6" s="2">
         <v>-9691.5859251174807</v>
       </c>
+      <c r="M6" s="5">
+        <f>-9691.61795323</f>
+        <v>-9691.6179532299993</v>
+      </c>
+      <c r="N6" s="5">
+        <v>-9688.1705222100009</v>
+      </c>
+      <c r="O6" s="5">
+        <v>-9688.9347746700005</v>
+      </c>
+      <c r="P6" s="5">
+        <v>-9695.4121441900006</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>-9696.1748150900003</v>
+      </c>
+      <c r="R6" s="5">
+        <v>-9694.9419055800008</v>
+      </c>
+      <c r="S6" s="5">
+        <v>-9695.7097172800004</v>
+      </c>
+      <c r="T6" s="5">
+        <v>-9698.2710490600002</v>
+      </c>
+      <c r="U6" s="5">
+        <v>-9699.0989830199997</v>
+      </c>
+      <c r="V6" s="5">
+        <v>-9694.5748362499999</v>
+      </c>
+      <c r="W6" s="5">
+        <v>-9695.3410753499993</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.8</v>
       </c>
@@ -732,8 +993,41 @@
       <c r="L7" s="2">
         <v>-9691.5924692795797</v>
       </c>
+      <c r="M7" s="5">
+        <v>-9691.62539612</v>
+      </c>
+      <c r="N7" s="5">
+        <v>-9688.1762240299995</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-9688.9398880099998</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-9695.4245101100005</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>-9696.1866256499998</v>
+      </c>
+      <c r="R7" s="5">
+        <v>-9694.95143594</v>
+      </c>
+      <c r="S7" s="5">
+        <v>-9695.7188966699996</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-9698.2745077100008</v>
+      </c>
+      <c r="U7" s="5">
+        <v>-9699.1022845700008</v>
+      </c>
+      <c r="V7" s="5">
+        <v>-9694.5838565499998</v>
+      </c>
+      <c r="W7" s="5">
+        <v>-9695.3496355900006</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.9</v>
       </c>
@@ -770,8 +1064,42 @@
       <c r="L8" s="2">
         <v>-9691.5861404372808</v>
       </c>
+      <c r="M8" s="5">
+        <f>-9691.61926376</f>
+        <v>-9691.6192637599997</v>
+      </c>
+      <c r="N8" s="5">
+        <v>-9688.1686300000001</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-9688.9318059199995</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-9695.4227868100006</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>-9696.1844250499998</v>
+      </c>
+      <c r="R8" s="5">
+        <v>-9694.9472587300006</v>
+      </c>
+      <c r="S8" s="5">
+        <v>-9695.71445829</v>
+      </c>
+      <c r="T8" s="5">
+        <v>-9698.2651388600007</v>
+      </c>
+      <c r="U8" s="5">
+        <v>-9699.0928724200003</v>
+      </c>
+      <c r="V8" s="5">
+        <v>-9694.5792242000007</v>
+      </c>
+      <c r="W8" s="5">
+        <v>-9695.3446337900004</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -808,8 +1136,42 @@
       <c r="L9" s="2">
         <v>-9691.5704945957805</v>
       </c>
+      <c r="M9" s="5">
+        <f>-9691.60392901</f>
+        <v>-9691.6039290099998</v>
+      </c>
+      <c r="N9" s="5">
+        <v>-9688.1523133899991</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-9688.9150910099997</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-9695.4116025599997</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>-9696.1729090999997</v>
+      </c>
+      <c r="R9" s="5">
+        <v>-9694.9340213800006</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-9695.7011421799998</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-9698.2475370400007</v>
+      </c>
+      <c r="U9" s="5">
+        <v>-9699.0754675000007</v>
+      </c>
+      <c r="V9" s="5">
+        <v>-9694.5655716000001</v>
+      </c>
+      <c r="W9" s="5">
+        <v>-9695.3307747599993</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -846,8 +1208,41 @@
       <c r="L10" s="2">
         <v>-9691.5259909409397</v>
       </c>
+      <c r="M10" s="5">
+        <v>-9691.5606606000001</v>
+      </c>
+      <c r="N10" s="5">
+        <v>-9688.1070457200003</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-9688.8691640100005</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-9695.3747743299991</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>-9696.1354806199997</v>
+      </c>
+      <c r="R10" s="5">
+        <v>-9694.8941023400002</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-9695.6611420299996</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-9698.2009763700007</v>
+      </c>
+      <c r="U10" s="5">
+        <v>-9699.0294314999992</v>
+      </c>
+      <c r="V10" s="5">
+        <v>-9694.5249078699999</v>
+      </c>
+      <c r="W10" s="5">
+        <v>-9695.2897811599996</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.4</v>
       </c>
@@ -884,8 +1279,42 @@
       <c r="L11" s="2">
         <v>-9691.47706831082</v>
       </c>
+      <c r="M11" s="5">
+        <f>-9691.51224163</f>
+        <v>-9691.5122416300001</v>
+      </c>
+      <c r="N11" s="5">
+        <v>-9688.0512627799999</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-9688.8126901699998</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-9695.3251653999996</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>-9696.0849812800006</v>
+      </c>
+      <c r="R11" s="5">
+        <v>-9694.8426851900003</v>
+      </c>
+      <c r="S11" s="5">
+        <v>-9695.6092946099998</v>
+      </c>
+      <c r="T11" s="5">
+        <v>-9698.1470960000006</v>
+      </c>
+      <c r="U11" s="5">
+        <v>-9698.9754100999999</v>
+      </c>
+      <c r="V11" s="5">
+        <v>-9694.4727479100002</v>
+      </c>
+      <c r="W11" s="5">
+        <v>-9695.2370101100005</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.6</v>
       </c>
@@ -923,8 +1352,42 @@
       <c r="L12" s="2">
         <v>-9691.43232260072</v>
       </c>
+      <c r="M12" s="5">
+        <f>-9691.46700224</f>
+        <v>-9691.4670022400005</v>
+      </c>
+      <c r="N12" s="5">
+        <v>-9688.0077407799999</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-9688.7686659800002</v>
+      </c>
+      <c r="P12" s="5">
+        <v>-9695.2868963399997</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>-9696.0461164900007</v>
+      </c>
+      <c r="R12" s="5">
+        <v>-9694.8029345199993</v>
+      </c>
+      <c r="S12" s="5">
+        <v>-9695.56952619</v>
+      </c>
+      <c r="T12" s="5">
+        <v>-9698.1044893599992</v>
+      </c>
+      <c r="U12" s="5">
+        <v>-9698.9334360800003</v>
+      </c>
+      <c r="V12" s="5">
+        <v>-9694.4323934999993</v>
+      </c>
+      <c r="W12" s="5">
+        <v>-9695.1963921799997</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.8</v>
       </c>
@@ -961,8 +1424,42 @@
       <c r="L13" s="2">
         <v>-9691.3952276060409</v>
       </c>
+      <c r="M13" s="5">
+        <f>-9691.42885461</f>
+        <v>-9691.4288546099997</v>
+      </c>
+      <c r="N13" s="5">
+        <v>-9687.9560302600003</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-9688.7163301100009</v>
+      </c>
+      <c r="P13" s="5">
+        <v>-9695.2454809899991</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>-9696.0046311999995</v>
+      </c>
+      <c r="R13" s="5">
+        <v>-9694.7614300999994</v>
+      </c>
+      <c r="S13" s="5">
+        <v>-9695.5309565299995</v>
+      </c>
+      <c r="T13" s="5">
+        <v>-9698.0619082499998</v>
+      </c>
+      <c r="U13" s="5">
+        <v>-9698.8961790400008</v>
+      </c>
+      <c r="V13" s="5">
+        <v>-9694.3893861800007</v>
+      </c>
+      <c r="W13" s="5">
+        <v>-9695.1550373299997</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -999,6 +1496,39 @@
       </c>
       <c r="L14" s="2">
         <v>-9691.3623985979302</v>
+      </c>
+      <c r="M14" s="5">
+        <v>-9691.4053243887302</v>
+      </c>
+      <c r="N14" s="5">
+        <v>-9687.9079925700007</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-9688.6701549400004</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-9695.1908968600001</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>-9695.9544998900001</v>
+      </c>
+      <c r="R14" s="5">
+        <v>-9694.7046714600001</v>
+      </c>
+      <c r="S14" s="5">
+        <v>-9695.4746510299992</v>
+      </c>
+      <c r="T14" s="5">
+        <v>-9698.0035753200009</v>
+      </c>
+      <c r="U14" s="5">
+        <v>-9698.8352450700004</v>
+      </c>
+      <c r="V14" s="5">
+        <v>-9694.33234171</v>
+      </c>
+      <c r="W14" s="5">
+        <v>-9695.1000156900009</v>
       </c>
     </row>
   </sheetData>

--- a/NdO_potential_curve.xlsx
+++ b/NdO_potential_curve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\OneDrive-南京大学\cyf(归档)\01_工作\01_文章\07_PCCP\review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\OneDrive-南京大学\cyf(归档)\01_工作\01_文章\07_PCCP\git\PCCP_NdO_CAS20o18e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A8B48-EEB2-4BAA-9C4C-55C79DD86E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0EDE17-EDA8-4F1A-B4DE-5E820DD19874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="41544" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>DMRGSCF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>openmolcas+QCMaquis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPS-NEVPT2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,7 +532,7 @@
     <col min="24" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -556,50 +560,53 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -636,11 +643,11 @@
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>30</v>
@@ -669,8 +676,11 @@
       <c r="W2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="X2" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.2</v>
       </c>
@@ -699,49 +709,52 @@
         <v>-9690.9170336950992</v>
       </c>
       <c r="J3" s="2">
+        <v>-9690.9096927813607</v>
+      </c>
+      <c r="K3" s="2">
         <v>-9690.9436709507299</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>-9690.9023549939902</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>-9690.9007522969405</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>-9690.9292190300002</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>-9687.5142948699995</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>-9688.2835010100007</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>-9694.7165971100003</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>-9695.4853461599996</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>-9694.2602672800003</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>-9695.0345460099998</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>-9697.6283655000007</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>-9698.4625117300002</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>-9693.8975794800008</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X3" s="5">
         <v>-9694.6703262999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.4</v>
       </c>
@@ -770,49 +783,52 @@
         <v>-9691.4098344700797</v>
       </c>
       <c r="J4" s="2">
+        <v>-9691.4043134836102</v>
+      </c>
+      <c r="K4" s="2">
         <v>-9691.4395865203605</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>-9691.4057279548797</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>-9691.3959823304904</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>-9691.4252618899991</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>-9687.9944045299999</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>-9688.7612917400002</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>-9695.2095627199997</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>-9695.9748956700005</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>-9694.7496224700008</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>-9695.5196847999996</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>-9698.1036711699999</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>-9698.9334790699995</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>-9694.3848199099994</v>
       </c>
-      <c r="W4" s="5">
+      <c r="X4" s="5">
         <v>-9695.1535811899994</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.6</v>
       </c>
@@ -841,50 +857,53 @@
         <v>-9691.57922680314</v>
       </c>
       <c r="J5" s="2">
+        <v>-9691.5658979792406</v>
+      </c>
+      <c r="K5" s="2">
         <v>-9691.6020717283609</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>-9691.5678882736902</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>-9691.5583936446892</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <f>-9691.58939899</f>
         <v>-9691.5893989899996</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>-9688.14518623</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>-9688.9101698300001</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>-9695.3791615999999</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>-9696.14256054</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>-9694.9121292199998</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>-9695.6804955299995</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>-9698.2483369300007</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>-9699.0766719599997</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>-9694.5456606999996</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>-9695.3125522900009</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.7</v>
       </c>
@@ -913,50 +932,53 @@
         <v>-9691.6059697243109</v>
       </c>
       <c r="J6" s="2">
+        <v>-9691.5935977541503</v>
+      </c>
+      <c r="K6" s="2">
         <v>-9691.6298560541309</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>-9691.5950426764593</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>-9691.5859251174807</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <f>-9691.61795323</f>
         <v>-9691.6179532299993</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>-9688.1705222100009</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>-9688.9347746700005</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>-9695.4121441900006</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>-9696.1748150900003</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>-9694.9419055800008</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>-9695.7097172800004</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <v>-9698.2710490600002</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>-9699.0989830199997</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>-9694.5748362499999</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <v>-9695.3410753499993</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.8</v>
       </c>
@@ -985,49 +1007,52 @@
         <v>-9691.6142357770295</v>
       </c>
       <c r="J7" s="2">
+        <v>-9691.6006286764205</v>
+      </c>
+      <c r="K7" s="2">
         <v>-9691.6386904082392</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>-9691.6019727704497</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>-9691.5924692795797</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>-9691.62539612</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>-9688.1762240299995</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>-9688.9398880099998</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>-9695.4245101100005</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>-9696.1866256499998</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>-9694.95143594</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>-9695.7188966699996</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <v>-9698.2745077100008</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>-9699.1022845700008</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>-9694.5838565499998</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <v>-9695.3496355900006</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.9</v>
       </c>
@@ -1056,50 +1081,53 @@
         <v>-9691.6076546898003</v>
       </c>
       <c r="J8" s="2">
+        <v>-9691.5942577471105</v>
+      </c>
+      <c r="K8" s="2">
         <v>-9691.6331911731395</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>-9691.5956987661702</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>-9691.5861404372808</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <f>-9691.61926376</f>
         <v>-9691.6192637599997</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>-9688.1686300000001</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>-9688.9318059199995</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>-9695.4227868100006</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>-9696.1844250499998</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>-9694.9472587300006</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>-9695.71445829</v>
       </c>
-      <c r="T8" s="5">
+      <c r="U8" s="5">
         <v>-9698.2651388600007</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <v>-9699.0928724200003</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>-9694.5792242000007</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <v>-9695.3446337900004</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1128,50 +1156,53 @@
         <v>-9691.5962457892001</v>
       </c>
       <c r="J9" s="2">
+        <v>-9691.57916770876</v>
+      </c>
+      <c r="K9" s="2">
         <v>-9691.6201228236605</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>-9691.5808511518899</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>-9691.5704945957805</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <f>-9691.60392901</f>
         <v>-9691.6039290099998</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>-9688.1523133899991</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>-9688.9150910099997</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>-9695.4116025599997</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>-9696.1729090999997</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>-9694.9340213800006</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>-9695.7011421799998</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <v>-9698.2475370400007</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>-9699.0754675000007</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <v>-9694.5655716000001</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>-9695.3307747599993</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1200,49 +1231,52 @@
         <v>-9691.5452313128008</v>
       </c>
       <c r="J10" s="2">
+        <v>-9691.5356652565806</v>
+      </c>
+      <c r="K10" s="2">
         <v>-9691.5785645460692</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>-9691.5374128109197</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>-9691.5259909409397</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>-9691.5606606000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>-9688.1070457200003</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>-9688.8691640100005</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>-9695.3747743299991</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>-9696.1354806199997</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>-9694.8941023400002</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>-9695.6611420299996</v>
       </c>
-      <c r="T10" s="5">
+      <c r="U10" s="5">
         <v>-9698.2009763700007</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>-9699.0294314999992</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>-9694.5249078699999</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <v>-9695.2897811599996</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.4</v>
       </c>
@@ -1271,50 +1305,53 @@
         <v>-9691.4992510915308</v>
       </c>
       <c r="J11" s="3">
+        <v>-9691.4873082693593</v>
+      </c>
+      <c r="K11" s="3">
         <v>-9691.5218691484297</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>-9691.4896724677001</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>-9691.47706831082</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <f>-9691.51224163</f>
         <v>-9691.5122416300001</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>-9688.0512627799999</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>-9688.8126901699998</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>-9695.3251653999996</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>-9696.0849812800006</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>-9694.8426851900003</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>-9695.6092946099998</v>
       </c>
-      <c r="T11" s="5">
+      <c r="U11" s="5">
         <v>-9698.1470960000006</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>-9698.9754100999999</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>-9694.4727479100002</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <v>-9695.2370101100005</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.6</v>
       </c>
@@ -1343,51 +1380,54 @@
         <v>-9691.4608777390004</v>
       </c>
       <c r="J12" s="2">
+        <v>-9691.4431753020308</v>
+      </c>
+      <c r="K12" s="2">
         <f>-0.3955015827+-9691.0951855659</f>
         <v>-9691.4906871486</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>-9691.4442790108496</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>-9691.43232260072</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <f>-9691.46700224</f>
         <v>-9691.4670022400005</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>-9688.0077407799999</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>-9688.7686659800002</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>-9695.2868963399997</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>-9696.0461164900007</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>-9694.8029345199993</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>-9695.56952619</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>-9698.1044893599992</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>-9698.9334360800003</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>-9694.4323934999993</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>-9695.1963921799997</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.8</v>
       </c>
@@ -1416,50 +1456,53 @@
         <v>-9691.4227963698704</v>
       </c>
       <c r="J13" s="2">
+        <v>-9691.4067751873499</v>
+      </c>
+      <c r="K13" s="2">
         <v>-9691.4496210992602</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>-9691.4089114853305</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>-9691.3952276060409</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <f>-9691.42885461</f>
         <v>-9691.4288546099997</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>-9687.9560302600003</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>-9688.7163301100009</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>-9695.2454809899991</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>-9696.0046311999995</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>-9694.7614300999994</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>-9695.5309565299995</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <v>-9698.0619082499998</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <v>-9698.8961790400008</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>-9694.3893861800007</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>-9695.1550373299997</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1488,46 +1531,49 @@
         <v>-9691.39301261734</v>
       </c>
       <c r="J14" s="2">
+        <v>-9691.3763189477195</v>
+      </c>
+      <c r="K14" s="2">
         <f>-0.376688396+C14</f>
         <v>-9691.418563826599</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>-9691.3810710734397</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>-9691.3623985979302</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>-9691.4053243887302</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>-9687.9079925700007</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>-9688.6701549400004</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>-9695.1908968600001</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>-9695.9544998900001</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>-9694.7046714600001</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>-9695.4746510299992</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <v>-9698.0035753200009</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <v>-9698.8352450700004</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>-9694.33234171</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <v>-9695.1000156900009</v>
       </c>
     </row>
